--- a/data/Contact_Recreation/RangitikeiEstuaryatRivermouth_716f056e0c.xlsx
+++ b/data/Contact_Recreation/RangitikeiEstuaryatRivermouth_716f056e0c.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
